--- a/biology/Zoologie/Cyrtodactylus_pulchellus/Cyrtodactylus_pulchellus.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_pulchellus/Cyrtodactylus_pulchellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus pulchellus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus pulchellus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Penang au Penang en Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Penang au Penang en Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été redéfinie par Grismer et al. en 2012[2] différentes populations auparavant considérées comme appartenant à cette espèce ont été décrites comme nouvelles : Cyrtodactylus astrum, Cyrtodactylus langkawiensis, Cyrtodactylus bintangrendah, Cyrtodactylus bintangtinggi, Cyrtodactylus trilatofasciatus, Cyrtodactylus australotitiwangsaensis et Cyrtodactylus lekaguli.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été redéfinie par Grismer et al. en 2012 différentes populations auparavant considérées comme appartenant à cette espèce ont été décrites comme nouvelles : Cyrtodactylus astrum, Cyrtodactylus langkawiensis, Cyrtodactylus bintangrendah, Cyrtodactylus bintangtinggi, Cyrtodactylus trilatofasciatus, Cyrtodactylus australotitiwangsaensis et Cyrtodactylus lekaguli.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique pulchellus vient du latin pulchellus, joli, en référence à l'aspect de ce saurien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique pulchellus vient du latin pulchellus, joli, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1827 : A Synopsis of the Genera of Saurian Reptiles in which some new Genera are indicated, and the others reviewed by actual Examination. The Philosophical Magazine or Annals of Chemistry, Mathematics, Astronomy, Natural History and General Science, vol. 2, n. 7, p. 54-58 (texte intégral).</t>
         </is>
